--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/29_Elazığ_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/29_Elazığ_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F55E2293-6AFE-47A5-8190-65A425A45B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{956A6828-8F5A-4E37-8E10-81594BCC211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19A2C8FA-A8FF-4A9F-9BA3-82EBEF9D7584}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C67A861D-48A6-4AD0-9BC9-62152821E410}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{943B259F-7FDF-4999-9785-A4B665D95D64}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{3E66F6C4-93CA-4C3B-8D9A-3CAB9A496A61}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{A589FB9A-1CB0-46F3-A5D0-4209F3338BC2}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{1D679314-C415-4A3D-AA65-90CCFAF15039}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{347BAB19-10A6-4318-A59E-9A60012BDC13}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{FEABB460-8B92-46DD-9CD3-4C0D6CF4B56E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{7C2DBD20-0E23-403C-A2D9-00AC74A0F844}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{8FB185B1-7DAC-4419-AE7F-30A029B264DF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150290E1-2AD4-414F-A05A-D86CEFDB2DC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F12E28-67B0-4D68-9FFE-D3F869D41A96}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2433,18 +2433,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C1C34DD9-9EBB-44AB-B2D0-96ACCC3855A6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DB199CFE-8FB3-459B-A2D2-F10BC68277BC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{07520001-5D54-4B73-9033-59C86657BA03}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6BF0EDEB-7A0D-4E43-89CA-D376A5070108}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9CFEA6E2-B8E7-41F4-82D9-15F702A78083}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A0F73933-74F9-4C6E-A641-2DCE36A4586E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{94F50583-EA63-4CB3-A6F0-226A972824D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E0E0B19F-4DBE-4FB9-8202-BE7ABDE12341}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8737EC3F-853E-49F4-9BFC-7036D6C83A99}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{586AFA77-C2F9-47AB-86AA-224B8E59878D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CFED77F1-71F8-4A0D-B6BE-89D58865A8A2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6734A391-17F7-444E-8763-BA58D7836B96}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C3144B81-25C0-49BA-AE2C-2F96B7D433C6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{99067AFA-48C7-4BFA-910C-C9905074C1CA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CD5CA8E5-6C32-4F12-9640-79BBB09922DE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4E04E68C-0E60-4905-A3C9-4053B2574786}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DF3549DC-0FE4-4652-B18C-7C378EEC3C5B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8AF94705-C3EF-4685-B53D-83BDD2DC3B63}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FED181D6-C9A2-4A1C-9AC5-CDE87B11EF53}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{094EF5EA-FDB6-47D1-860D-965EC055854B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{09AAD46D-E163-419C-91E3-565D60D0C051}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{907D5C75-C079-4008-847E-7095253B17CD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FDF4A1FB-08EB-41AA-8FFE-7DCD3D785026}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3167D4E5-DD73-46C2-817A-C14948D3AE30}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2457,7 +2457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE5E199-288B-4684-9EE7-96B2E7D715B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE288B4-942C-47DD-9FF9-40F05B19BE68}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3640,18 +3640,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6046C92B-243C-481E-BD40-1D7F24DE7453}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8FEC72AC-9ED2-40BC-82B4-0B63A578F1A0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FE026FAA-1463-4071-A8FE-8F3EF6D1B1D2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A0560641-FAC4-4390-9932-1ADA23C7DB8E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{63A4686A-0AF2-48F2-8056-F8B81679AB2C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D404B541-6B11-4399-B2AB-F241BB0C89FB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D37D7B41-D73F-4129-A2F0-F6A998EAA273}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7525DDE8-58DD-4118-AF52-BD4B51344AF9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C98D93D7-5E43-4DF7-B3B9-49F72A98AA32}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F7D52D48-F815-441C-95BB-F3C2794D3858}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BA71A364-0AD5-423B-973B-F671CDB65AE7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1188B69E-379B-4048-9E1A-85CAEDA03C95}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6ED5E787-94CE-4F43-9129-F0B07238B00C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5FFD0D78-9296-41D5-96BC-CB87329F3A79}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3F3A6EB3-F770-4D09-BF6D-8C56E164D12E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F857F681-D380-45D6-A871-EF053FDF5B6C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A83A87BA-2AF9-42DB-86E5-8D804786716A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C09352D2-965E-4B3F-B4D6-7C8BA42666E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D066A6FF-5459-4C1F-8C07-19BB19CD223D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D3C46850-AA41-4C1D-B065-D930F68AE5E8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7B752B2C-99B1-4B5F-B750-D203472743C0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{222739F4-F912-442B-AEEB-DB07AE423C15}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7843ED36-D42D-44BC-A9C3-8C894C1BE881}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{11EC0FF8-B4DB-4802-80F4-9523B7AB0A5D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3664,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9BA68B-81FC-4E11-AE03-D3A243C21D9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA81FC1-8BE1-4901-B4CF-355F2C65E886}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4823,18 +4823,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{94E23718-CB49-4E66-AEA5-D5A9874B9F88}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DDCFD008-F071-4968-AF61-471AD2B4C7C1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1B219B8B-06EB-466C-AFDF-5D6B73492B80}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3EC2884A-6850-4C5A-A628-7F39B8BEC337}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1C883CAB-54E4-472C-818A-A32243E9EAB0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A1793CF0-7E05-4C1C-A923-74E94AEFBD5C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C51C130C-16F8-4EBC-B62D-D27FC072E09B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C87348D5-4D70-4BD0-BA72-A47B51D38908}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{73E78785-5D21-47CF-B0FB-03C86328E445}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B903FD80-6B0C-4A06-A1DE-0129903607A7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9A9F4176-4E59-499A-8DE2-B8CE927AF14A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3A426E16-459C-4D59-9874-65FD1FEBFECF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{86E3D8D4-9806-4318-B8D8-93BA81F7EF79}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{954E4EE4-F9B3-4765-8F31-9EEB55DF1D5D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{775DFA6E-D1F9-4965-B357-032585C4F346}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0ADE4994-9513-4F7F-8AC1-7DA664D64361}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C2973740-9671-4602-9A0D-85BA6E5094A2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4E0E0C35-760C-4D1F-86FE-C2C377960137}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{589DB438-E077-449E-A00B-47513F885B94}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FBB5CDAA-4002-43EA-A5AF-A8827DC46B01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{40F7A88D-F01A-465E-9558-92A155A6CB28}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C5EC1B3A-6507-4F86-8F1E-155552D7989A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{43F3733D-F76B-44B5-A11D-9FCCCDD7C169}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4A094930-4A0F-46B7-9608-908EC7B0FA46}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4847,7 +4847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454A072C-3998-4E83-83E9-4C256112B4D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C849C564-AAF1-47A5-B73A-2AAD06DCFB91}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5990,18 +5990,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{34426201-A718-4981-B8A4-FAAF41772711}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{04B7934C-5AD6-42B1-B129-28218800548A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{33FDED70-C3FC-4068-BB41-8CD01AC7EBA2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AF21BADA-CE5E-4A20-8567-B08C05F1C27D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7284E47C-2879-4E5F-BCC8-01012AD2F09B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{021EF7BA-4871-4356-AEBC-9F79DA42D2F7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CCCD0228-C8A8-47EB-ADF9-7865430F8CC1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FE35F5B0-D68E-48B5-820E-CE893A339819}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C5874FA0-1694-4652-95BD-927995AE3562}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{23E60435-6108-43FE-9700-5AA3578903C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{18888AAA-CE65-48F4-A51D-9111AF27288A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CA622D2E-5FBF-4026-9344-9B60EC02DFBD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{95F8D993-FFA1-4FB6-B299-9564BA9DF4AF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{04431D71-6388-47C0-A885-B6E96A4E16F3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2597CE30-164C-45A1-9A0B-C78434433A9C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{17A1D0C9-7D97-41C9-B6B6-E21A2EC0E379}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9BFFB7B6-277D-47F9-904C-359085A4E788}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F1F4A8F7-E3BC-4FF0-A15D-C64976E1BCE9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{65796F1B-CBA8-433C-91A0-240D164C808A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F9E7F9EC-5914-45C8-9A92-A9852DCA9301}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D7F8FF6A-C259-43FC-B55C-22F884D502B7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{38156BA3-6180-4C15-AB9B-8640DB1F52D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{55F57378-9E3A-4AFD-8E2E-B93497E8AA63}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9F747A86-BFAE-43E2-BF10-E5602EC23CA1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6014,7 +6014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811F8E38-C62B-4715-A7C7-E95F5B12EAE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D6CA91-590B-4272-B461-0F20FF1C4E07}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7219,18 +7219,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4C5271B5-7667-4942-899C-CE4B52211AE9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{639C6D64-3A67-4BA1-A1AB-9A36A20AEBC3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D818BACA-81C7-4D94-B019-AF8DB2C8C960}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D63A8EAD-E554-4DB9-AF38-91405D44CF78}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F586C8F4-0FE7-4631-81C0-A2388080FCAD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{21ED9559-08F9-4565-A73D-E392E2C6782B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{42FEB6BA-C90D-4660-A7A1-8BCECBF840C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D94C24A4-71A4-4603-8C99-7CD1A89B4C15}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{57B87538-6E12-47A8-AFA2-2325AFA737A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FF1DFE99-38F6-4AE2-87AB-F09BF4C522B3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1A66C9B5-B303-4F8A-ACD5-6D0B7BA75385}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{991C3544-A677-4D11-B73D-30169A17DA8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E67B541A-1445-4511-9908-BBE117A57C69}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D7679CAE-2EEC-432F-8266-5B0EE8E1CE89}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EF8BF6BE-13C4-4414-A0C6-FE3BEA6C4444}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{10A4DB63-2AC5-49AC-9A92-7FEA807E3E1F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EDE79416-A842-4A58-BAFA-94A61B2312F5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F12AC631-4A3E-41F6-A983-A33688BC9500}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8C484ECA-6EE1-42A9-BDA6-23F27CA8C2A8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FC4B2A7A-AB3A-4F02-A9FF-1007A52A09B4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DAE0E663-3894-4DDA-9F18-6CFF7F2BBEDF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9D09BB4E-65F6-4D90-AB2D-A75E0C6DF301}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2A2F560A-442D-480D-8EEB-7E438B44D7B3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{71C1A98D-C989-4364-98A4-61591D96D8C6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7243,7 +7243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7497B4D1-E5BE-47B3-89DC-61FF3A7DEADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C847468B-5846-4C27-9BCF-43462F890EFB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8444,18 +8444,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5D4A23FB-452A-4A5B-851B-744D81658090}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{68DC8BF8-D040-4C4D-8970-5082915BA522}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{97B9EA2A-756C-4482-9B32-7B61837A3583}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6D31BB5B-8502-41E8-BA61-A13A5A17634D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{39DB76D0-F6E3-433A-B556-7E37F2DE7DFD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{79DCB123-B063-4C42-8B10-1AAD2032F7B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4CA05202-1C80-49B6-B848-3BC422978D69}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7B7018DE-CAFE-4114-A443-931F81B14860}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E0FBD0A7-6FF7-4573-8E1B-3978D543F2C3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9BF35B11-98C6-4A8D-8CA5-D3813A374640}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{01E98089-3D0A-4EDA-AEEF-798256FF0F0F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0B0CF66F-11A6-46FD-9283-7DBE658851E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A6682BEE-EEF0-45BA-9709-430685378E81}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E2B9D738-6E92-424A-A228-6C26320CB81C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DC4D1A8D-983E-4A90-BD04-820EBEC3F188}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8F73E33F-ADF5-4280-8447-B36167FCE86D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6453981F-4DE0-4B12-AA82-F45033E46ECB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B77632D3-CC6E-453F-9A9E-A572D2C43807}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{753901FC-6564-44D7-9EC0-8C0FCD4CF530}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0AFF52F7-DBAD-44FE-B134-2916F77746B9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AEFD76AB-955F-43E5-ADCA-534DDF02C44E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{90EC8D76-F151-4F28-9EF4-052D05E1583C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9D3CD634-9E5D-4AE7-BCD8-B6F05C86E053}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{82C33368-1B8D-4CE3-8E53-373FA0EEE775}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8468,7 +8468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A0C8D7-C9FB-4735-8489-A56C1D9D6C8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2279E2E9-C025-4387-B211-DBA952FCC416}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9669,18 +9669,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{44210359-48DB-451E-B53C-F174D7807055}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7631905F-B115-49B7-ABD1-2A256E67AD50}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{287FF9B3-C4E2-4FE4-BD4D-EFEF00EB1992}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8B4AEC9B-C912-4AD4-9AC2-8F7DA1E813C7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EF91247C-8584-489B-9B14-9142C246D79A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7282E5CE-038D-49BD-99B6-F14624DEB9F6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CA9A59F6-0DDF-474C-8CE6-E310BF2C334C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{20FEF012-8D5E-40E6-8DF2-9DD326AA7797}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B1429CA2-075A-4185-9453-1CBC276E3911}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AC210948-4E60-458A-BA17-196904DACBD7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D565CA2D-DB92-4F59-8E51-08D88F5C015B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{59963BAD-BB3C-49CB-BB0D-A39B85154A26}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E852DE83-568A-4F53-8A07-EA85547AAC38}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DE15F5EA-2D0D-4B49-924E-AD54EC797B49}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C507C030-1C38-4D7F-A00B-A9CFC0B96495}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B550C0BC-F2AD-4893-B23A-D7B58EF21FA4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{162A17F6-450A-4238-B177-D8E5C26250FD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{49D20332-8DD5-4387-B325-D249D60431A8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C5A50DC2-498B-4FF0-BE6B-E654F28393A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{53F3D0CC-C976-4E04-9257-143ECF4E98C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4BFE79D3-D880-41A8-BD48-EFF378F02394}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7C2F2BD7-8B19-44B1-AB8A-3E46443B81EB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5AE705E6-3F0F-414A-877B-536A4315F612}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4676E0DF-B352-43CA-94A6-8D2EF5899860}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9693,7 +9693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8345296-284B-4DC5-9D28-8B79C3A26118}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B070B6CD-B67D-499E-A163-40362411B1EB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10892,18 +10892,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CF1A7C46-C37E-4216-B5C1-CBD2824EE5F5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6BB8EB58-F2B9-40F6-80DD-C4CCC4603BFD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{050FB416-523C-420D-A3A1-87EE0BB70A55}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8859C4FF-E353-4024-B511-D2172DF6643E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{87AADB43-59EF-479A-BE14-5CF7177AC0FB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{746959F7-4C22-4F8D-AF5A-FCE6A773F5C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A6C7EE38-70E7-48D7-81B3-35AC90F17820}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3407F272-B063-4B2B-9FEF-DF5DE157C3E2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0334569A-0D95-4EAA-9569-683998D0370E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9207C94C-43E0-4F67-802C-1675267E8C08}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{718C06F3-E176-4529-8508-2BE074F3F44C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D626368D-49E3-4285-86D0-18183CB923D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{994827E7-23D5-4A56-AAC5-F99CA2F1A316}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{94C58BCF-F535-425F-B6A4-77CB09196F31}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FD406281-0778-457B-9F87-0FD109287F5F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8445F60D-EF8E-4D10-9952-38C918364C0E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{67767BB2-F150-4026-A0DE-9C4735EFB180}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4BC363A4-C45B-49D8-9AD9-9D2B1D5917B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{92650EC3-4012-4261-81A4-A5319F984B8C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ABC0989F-ABFC-434E-8BB5-7992D2C94A8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DAA3DEB1-0E1C-43BB-9909-ABCCB3CD169D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5FE43A07-78F3-44B8-A7C4-C58AA95BC738}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AB62D786-00BF-43CC-813E-02A66551DBD6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{321C69B4-F5AD-47B6-857E-C7E25D59FB62}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10916,7 +10916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3372AA2-89F4-4332-8618-E1DA3E120EA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871BD50E-3056-4B5B-B2F3-6C3265EA2B1F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12115,18 +12115,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B9EB8EBC-DB8B-426F-AC8E-89CB48F16EB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{99B7C6FB-D866-4EC5-AEC3-A1466B96524C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3B17B44F-07BD-4515-A0A5-6E8D9E206F2E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5C603CA8-BCFC-4622-B815-B90C4A89F56F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6D57F406-E2BF-4AA5-A93B-7A786328A26B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7D5756A5-BE87-4EDC-932E-1F37F4508FF4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{318B6DC9-4EAC-4D5E-8F8D-25337C56DFEA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1426824B-2583-4129-918B-A35681F6239C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6E47B1CA-F531-464F-8662-A3169E12E87A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3C27D096-6601-45AA-AEFF-A85100FE8894}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F7F32C0A-F864-411E-8E8C-C32D649433FA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3C56EE5E-5B90-4902-8084-4BBF16FFA120}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BF3BF273-7A7D-4A09-B575-46BE00600A4F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A6B83FFE-607F-4DC7-9048-09600EC81ECA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{65FDA300-43AD-46E2-AE14-0AF1FD64224B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4F4802A8-DC3A-4FDE-A87E-F7776D0B4A62}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2984018E-A2E8-426D-97E0-8968CE58DACE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5DA620DD-03FC-4CF1-BE70-B141EED34524}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4A67896F-AE54-4806-89B4-E9C5CE922F6C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7639744D-9C72-412D-AC5D-DDB921A68DCB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{95150A1C-1E80-4EB5-9D9D-4892366A9D93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E4FFA611-74BA-47F5-B352-64DE7D5E43BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C541C061-6A08-4FC4-937C-1B0C69E57035}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C3E099F8-F509-4920-A8D4-C4320BCFB1E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12139,7 +12139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659B6B84-6D0F-4017-949F-E599C3EF900C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFD23F5-EE4D-486B-A7B8-AE14B5C06BED}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13326,18 +13326,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DAE9B5A9-04D4-4584-95F8-C8699CBCB5EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2362011F-1CC6-4835-ACD8-8ED7F3BB69BD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F15CA653-D350-4B68-9E8F-2EB482399BC4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CCD664CA-481D-44C1-BA01-FE69A9EA5B2F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{993E185F-5555-481C-A751-5A6DB98DF958}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DBBBB311-AA9F-4A6F-B766-BE60C6A755EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B810897B-9A2B-418E-8B5B-2FFE6E5756D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5472298B-0212-4D41-ABFD-6B34DFBBADF3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C22F7B31-719C-4398-99C3-1D7BCC6DD119}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1A177827-6CA2-4293-8865-53E11105B9AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1EF97DEB-FF50-4F78-93CD-9DDAFF1A26F8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9E72726C-1FC7-4B2D-84A9-1F1CDA3F606E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8200B467-8305-45CB-9C93-250B0DD2D3E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4DEB4697-62D7-4782-AA4F-4A9F9B415739}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C868B5B1-A773-433B-95DB-AC82FD920CCC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9E919721-1AE1-4C78-AC31-C6BB4BBC1AD1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B7384BB3-844E-4078-887B-1F25B1A10337}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{34FDD88B-7D78-43BA-AAC2-76FAC10CDCBD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C886AFFE-52CC-4037-B01E-F7B65A13C34D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{05340A42-896C-45C6-BF59-A0783480D13F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2AB28D40-E4FC-446D-80E5-B63F4A54AE33}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{789AF5AD-5BEB-45F7-AFDF-42AEBBF7C50D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7F700209-7412-4ED3-A542-3756EBAF56F7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4C8B1C64-71B9-4762-87F1-D6675B87B935}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13350,7 +13350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08600EA9-12FD-431A-9020-3D26FAC7E058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B2A812-C764-4930-BF3D-87F7E0C54494}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14533,18 +14533,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{870495C7-2CDE-4FD1-9D09-FE4BD9105A16}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{62311AB8-4503-479A-BDF2-FC5C0A2929B1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{33C55FAD-3582-46A8-897F-84BCA32C0795}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F38E49CE-7CCF-452B-B6FD-CEFB89B0CDD4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{30FF1D92-4319-4E62-8B14-F86FAA93DCE3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8B7D26E7-95DF-4AB5-AFCD-8822DCE6E31D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B7D5C507-225D-48D9-81BD-3590581320C1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EBD7359E-0659-4DFF-B8BB-50C393739A27}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4020E86B-DC86-4ED7-B2ED-C5F7A7DC35E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{87373889-77A4-4C59-B076-2485266DB566}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C94D5FFF-1BF9-4A6E-B1E1-06268204847E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5315C664-4FB9-4289-8621-41B544F528F9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8F40A1C2-B705-4972-8E5F-0ABA64425689}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EA9BF791-E083-401A-97BA-B213115D553D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{508B08CD-C533-4269-90B7-C461932FF2E9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{63C98903-7094-4317-B8A1-17F79BC12CE7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CD148BE6-98EB-46B9-B827-438F8E409A9D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{574B20EC-07F0-4538-A6D1-AF8D4ABE1A83}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F1CF4C81-6DA8-47A9-B832-2AB41DB71CEC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{92EB3F11-AEBB-4E13-A7B7-8164A8E8812F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9B86915A-7EBA-42D4-88F8-1F03780C516B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AFFF3F17-045D-4AB3-B12F-AE93696D98C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{570775D4-11FA-423A-ADC9-31423CD428EF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CA323158-C0E9-46B6-A073-E48D5D18DE39}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14557,7 +14557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4CE45D-8E2F-40FD-9388-679BD507E958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA010B1-0B3F-4E35-B82D-94F7972FFD7C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15740,18 +15740,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1D6C800A-FC57-49AB-B015-4162DE5F7E56}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{897F4381-FDCA-4DB8-B307-80191EE32785}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7CEF6A43-710F-4815-BA41-5F158277CBDF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{11616547-BE3D-44FC-A3FF-2133F6D43714}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{20CAE00C-EC5D-4896-AFEF-A6FFAA7CDE3C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E25420AB-EEC3-4DA2-BC22-9C9445ED07E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{634DD6E2-6720-4A7C-B829-C101496B625B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{499A721D-0D05-4A5A-B293-0E22F0B22A02}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E9558A98-B9C7-47FA-91EF-11885EEC3CF6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{28CE012A-1C3E-487E-9AAF-15857DFE6428}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2D1C3D77-C82B-4348-8C6A-92D2544BEBA7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7ACD02EC-D110-4715-ADF0-F1D21917883B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AC0CFE53-3EE7-447D-B2F6-AFE4042C24B7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{585985CC-96AA-4298-B573-8DA1DEA0E873}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A3EBFFE3-885A-4608-9A1A-8B8D5293687B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E28F7F96-6F32-4C82-B7F9-F496D61F9745}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{72922D1B-D98E-4A09-AE5E-F02EDD1E1066}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D1D00CA2-1168-43E0-BE3A-8CDA7EFD19D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A0E76FC3-536F-4A1D-8531-86042AAB0450}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3023F384-264E-4FA8-B3B6-4F44676D5F68}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1DA4D443-4D5A-4771-931F-095C5F204AEE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FA18C4B9-57DF-44C0-A84A-33ADE3B8176E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3316CF18-FBCC-47DE-8E79-0E1C9CCA19E9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{273DD415-0A54-44EA-AB5C-856941E97287}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
